--- a/biology/Botanique/Hamilcoa_zenkeri/Hamilcoa_zenkeri.xlsx
+++ b/biology/Botanique/Hamilcoa_zenkeri/Hamilcoa_zenkeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamilcoa zenkeri (Pax) Prain est une espèce de plantes à fleurs du genre Hamilcoa et de la famille des Euphorbiaceae[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamilcoa zenkeri (Pax) Prain est une espèce de plantes à fleurs du genre Hamilcoa et de la famille des Euphorbiaceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique zenkeri rend hommage au botaniste allemand Georg August Zenker, actif au Cameroun.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste d'une hauteur comprise entre 6 et 14 m[4]. La plante présente en outre une certaine ressemblance écologique avec Plagiostyles africana et avec le genre Cola.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste d'une hauteur comprise entre 6 et 14 m. La plante présente en outre une certaine ressemblance écologique avec Plagiostyles africana et avec le genre Cola.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante native du Cameroun[5], on la retrouve dans les forêts à feuilles persistantes et semi-décidues, à environ 400 m d’altitude.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante native du Cameroun, on la retrouve dans les forêts à feuilles persistantes et semi-décidues, à environ 400 m d’altitude.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suivant les critères de l’UICN, elle est évaluée comme une espèce vulnérable[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suivant les critères de l’UICN, elle est évaluée comme une espèce vulnérable.
 </t>
         </is>
       </c>
